--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.658133</v>
+        <v>0.7013713333333333</v>
       </c>
       <c r="H2">
-        <v>1.974399</v>
+        <v>2.104114</v>
       </c>
       <c r="I2">
-        <v>0.2075098116330413</v>
+        <v>0.1793346278705516</v>
       </c>
       <c r="J2">
-        <v>0.2075098116330412</v>
+        <v>0.1793346278705516</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N2">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O2">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P2">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q2">
-        <v>0.15044262247</v>
+        <v>0.4438018289939999</v>
       </c>
       <c r="R2">
-        <v>1.35398360223</v>
+        <v>3.994216460945999</v>
       </c>
       <c r="S2">
-        <v>0.01396614277506916</v>
+        <v>0.0247938062273745</v>
       </c>
       <c r="T2">
-        <v>0.01396614277506915</v>
+        <v>0.0247938062273745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.658133</v>
+        <v>0.7013713333333333</v>
       </c>
       <c r="H3">
-        <v>1.974399</v>
+        <v>2.104114</v>
       </c>
       <c r="I3">
-        <v>0.2075098116330413</v>
+        <v>0.1793346278705516</v>
       </c>
       <c r="J3">
-        <v>0.2075098116330412</v>
+        <v>0.1793346278705516</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.542951</v>
       </c>
       <c r="O3">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P3">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q3">
-        <v>1.435377323494333</v>
+        <v>1.529679422268222</v>
       </c>
       <c r="R3">
-        <v>12.918395911449</v>
+        <v>13.767114800414</v>
       </c>
       <c r="S3">
-        <v>0.1332513639212586</v>
+        <v>0.08545835710432197</v>
       </c>
       <c r="T3">
-        <v>0.1332513639212586</v>
+        <v>0.08545835710432195</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.658133</v>
+        <v>0.7013713333333333</v>
       </c>
       <c r="H4">
-        <v>1.974399</v>
+        <v>2.104114</v>
       </c>
       <c r="I4">
-        <v>0.2075098116330413</v>
+        <v>0.1793346278705516</v>
       </c>
       <c r="J4">
-        <v>0.2075098116330412</v>
+        <v>0.1793346278705516</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N4">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O4">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P4">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q4">
-        <v>0.5352685633843334</v>
+        <v>1.013058182171778</v>
       </c>
       <c r="R4">
-        <v>4.817417070459</v>
+        <v>9.117523639546002</v>
       </c>
       <c r="S4">
-        <v>0.04969095231454426</v>
+        <v>0.05659636041329361</v>
       </c>
       <c r="T4">
-        <v>0.04969095231454424</v>
+        <v>0.0565963604132936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.658133</v>
+        <v>0.7013713333333333</v>
       </c>
       <c r="H5">
-        <v>1.974399</v>
+        <v>2.104114</v>
       </c>
       <c r="I5">
-        <v>0.2075098116330413</v>
+        <v>0.1793346278705516</v>
       </c>
       <c r="J5">
-        <v>0.2075098116330412</v>
+        <v>0.1793346278705516</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N5">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O5">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P5">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q5">
-        <v>0.114197263761</v>
+        <v>0.2234975863373333</v>
       </c>
       <c r="R5">
-        <v>1.027775373849</v>
+        <v>2.011478277036</v>
       </c>
       <c r="S5">
-        <v>0.01060135262216928</v>
+        <v>0.01248610412556155</v>
       </c>
       <c r="T5">
-        <v>0.01060135262216927</v>
+        <v>0.01248610412556155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>2.235316</v>
       </c>
       <c r="H6">
-        <v>6.705947999999999</v>
+        <v>6.705948</v>
       </c>
       <c r="I6">
-        <v>0.7047967540000627</v>
+        <v>0.5715511084947251</v>
       </c>
       <c r="J6">
-        <v>0.7047967540000626</v>
+        <v>0.571551108494725</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N6">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O6">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P6">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q6">
-        <v>0.5109708844399999</v>
+        <v>1.414425258108</v>
       </c>
       <c r="R6">
-        <v>4.598737959959999</v>
+        <v>12.729827322972</v>
       </c>
       <c r="S6">
-        <v>0.04743530928155325</v>
+        <v>0.07901947103761942</v>
       </c>
       <c r="T6">
-        <v>0.04743530928155324</v>
+        <v>0.07901947103761942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>2.235316</v>
       </c>
       <c r="H7">
-        <v>6.705947999999999</v>
+        <v>6.705948</v>
       </c>
       <c r="I7">
-        <v>0.7047967540000627</v>
+        <v>0.5715511084947251</v>
       </c>
       <c r="J7">
-        <v>0.7047967540000626</v>
+        <v>0.571551108494725</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>6.542951</v>
       </c>
       <c r="O7">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P7">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q7">
-        <v>4.875187685838666</v>
+        <v>4.875187685838667</v>
       </c>
       <c r="R7">
-        <v>43.876689172548</v>
+        <v>43.87668917254801</v>
       </c>
       <c r="S7">
-        <v>0.4525816298453535</v>
+        <v>0.2723613354157682</v>
       </c>
       <c r="T7">
-        <v>0.4525816298453534</v>
+        <v>0.2723613354157682</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>2.235316</v>
       </c>
       <c r="H8">
-        <v>6.705947999999999</v>
+        <v>6.705948</v>
       </c>
       <c r="I8">
-        <v>0.7047967540000627</v>
+        <v>0.5715511084947251</v>
       </c>
       <c r="J8">
-        <v>0.7047967540000626</v>
+        <v>0.571551108494725</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N8">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O8">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P8">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q8">
-        <v>1.818013052118666</v>
+        <v>3.228682234241334</v>
       </c>
       <c r="R8">
-        <v>16.362117469068</v>
+        <v>29.05814010817201</v>
       </c>
       <c r="S8">
-        <v>0.1687728479865586</v>
+        <v>0.1803762771032394</v>
       </c>
       <c r="T8">
-        <v>0.1687728479865586</v>
+        <v>0.1803762771032394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>2.235316</v>
       </c>
       <c r="H9">
-        <v>6.705947999999999</v>
+        <v>6.705948</v>
       </c>
       <c r="I9">
-        <v>0.7047967540000627</v>
+        <v>0.5715511084947251</v>
       </c>
       <c r="J9">
-        <v>0.7047967540000626</v>
+        <v>0.571551108494725</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N9">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O9">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P9">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q9">
-        <v>0.3878653263719999</v>
+        <v>0.7123013259279999</v>
       </c>
       <c r="R9">
-        <v>3.490787937348</v>
+        <v>6.410711933351999</v>
       </c>
       <c r="S9">
-        <v>0.03600696688659729</v>
+        <v>0.03979402493809804</v>
       </c>
       <c r="T9">
-        <v>0.03600696688659728</v>
+        <v>0.03979402493809803</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2781263333333333</v>
+        <v>0.9742769999999999</v>
       </c>
       <c r="H10">
-        <v>0.834379</v>
+        <v>2.922831</v>
       </c>
       <c r="I10">
-        <v>0.08769343436689613</v>
+        <v>0.2491142636347233</v>
       </c>
       <c r="J10">
-        <v>0.08769343436689611</v>
+        <v>0.2491142636347233</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N10">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O10">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P10">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q10">
-        <v>0.06357689853666666</v>
+        <v>0.6164864373509998</v>
       </c>
       <c r="R10">
-        <v>0.57219208683</v>
+        <v>5.548377936158999</v>
       </c>
       <c r="S10">
-        <v>0.005902077666428836</v>
+        <v>0.03444114979006043</v>
       </c>
       <c r="T10">
-        <v>0.005902077666428834</v>
+        <v>0.03444114979006044</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2781263333333333</v>
+        <v>0.9742769999999999</v>
       </c>
       <c r="H11">
-        <v>0.834379</v>
+        <v>2.922831</v>
       </c>
       <c r="I11">
-        <v>0.08769343436689613</v>
+        <v>0.2491142636347233</v>
       </c>
       <c r="J11">
-        <v>0.08769343436689611</v>
+        <v>0.2491142636347233</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.542951</v>
       </c>
       <c r="O11">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P11">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q11">
-        <v>0.6065889902698889</v>
+        <v>2.124882223809</v>
       </c>
       <c r="R11">
-        <v>5.459300912429001</v>
+        <v>19.123940014281</v>
       </c>
       <c r="S11">
-        <v>0.05631189023964043</v>
+        <v>0.1187104573961213</v>
       </c>
       <c r="T11">
-        <v>0.05631189023964042</v>
+        <v>0.1187104573961213</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2781263333333333</v>
+        <v>0.9742769999999999</v>
       </c>
       <c r="H12">
-        <v>0.834379</v>
+        <v>2.922831</v>
       </c>
       <c r="I12">
-        <v>0.08769343436689613</v>
+        <v>0.2491142636347233</v>
       </c>
       <c r="J12">
-        <v>0.08769343436689611</v>
+        <v>0.2491142636347233</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N12">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O12">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P12">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q12">
-        <v>0.2262039479598889</v>
+        <v>1.407242126451</v>
       </c>
       <c r="R12">
-        <v>2.035835531639</v>
+        <v>12.665179138059</v>
       </c>
       <c r="S12">
-        <v>0.02099934567494064</v>
+        <v>0.07861817216327031</v>
       </c>
       <c r="T12">
-        <v>0.02099934567494063</v>
+        <v>0.07861817216327031</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2781263333333333</v>
+        <v>0.9742769999999999</v>
       </c>
       <c r="H13">
-        <v>0.834379</v>
+        <v>2.922831</v>
       </c>
       <c r="I13">
-        <v>0.08769343436689613</v>
+        <v>0.2491142636347233</v>
       </c>
       <c r="J13">
-        <v>0.08769343436689611</v>
+        <v>0.2491142636347233</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N13">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O13">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P13">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q13">
-        <v>0.048259646981</v>
+        <v>0.3104611602659999</v>
       </c>
       <c r="R13">
-        <v>0.434336822829</v>
+        <v>2.794150442394</v>
       </c>
       <c r="S13">
-        <v>0.004480120785886226</v>
+        <v>0.01734448428527123</v>
       </c>
       <c r="T13">
-        <v>0.004480120785886224</v>
+        <v>0.01734448428527123</v>
       </c>
     </row>
   </sheetData>
